--- a/01_GPS/04_OUTPUT_FILES/Rhino - GPS_V1_BOM/Rhino - GPS_V1Bill of Materials Farnell Order.xlsx
+++ b/01_GPS/04_OUTPUT_FILES/Rhino - GPS_V1_BOM/Rhino - GPS_V1Bill of Materials Farnell Order.xlsx
@@ -1,243 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\IRNAS-Common\_NEW-IRNAS-COMMON\SmartParks\Smartparks - Rhino tracker\01_GPS\04_OUTPUT_FILES\Rhino - GPS_V1_BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Altium Output" sheetId="1" r:id="rId1"/>
     <sheet name="Farnell Order" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
-  <si>
-    <t xml:space="preserve">Column=Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column=Supplier Part Number 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column=Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. PCBs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material in stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column=Designator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column=Supplier 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column=IRNAS Part No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier Part Number 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1759384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2672128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1740588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2627419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2820847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1688077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2101835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1711736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-6563-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2072515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2447094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2072513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2533209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">672-1063-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2800966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2908903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2467864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTICOMP         MC0402N330J160CT             SMD Multilayer Ceramic Capacitor, 0402 [1005 Metric], 33 pF, 16 V,  5%, C0G / NP0, MC Series                          New</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 1UF 10V 20% X5R 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTICOMP         MC0402X104J160CT             SMD Multilayer Ceramic Capacitor, 0402 [1005 Metric], 0.1 F, 16 V,  5%, X5R, MC Series                          New</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multilayer Ceramic Capacitors MLCC - SMD/SMT 50volts 1.8pF C0G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between PCB connection, TEST POINT ROUND SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF / Coaxial Connector, U.FL Coaxial, Straight Jack, Surface Mount Vertical, 50 ohm, Brass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TVS Diode, ESD9R Series, Unidirectional, 3.3 V, 7.8 V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXED IND 33NH 200MA 580 MOHM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inductor RF Chip Multi-Layer 4.3nH 0.3nH 100MHz 8Q-Factor Air 300mA 210mOhm DCR 0402 Paper T/R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTICOMP         MCMR04X1000FTL            SMD Chip Resistor, Ceramic, MCMR Series, 100 ohm, 50 V, 0402 [1005 Metric], 62.5 mW,  1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTICOMP   MCWR04X1003FTL   RES, THICK FILM, 100KOHM, 1%, 0.0625W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESISTOR, 0402, 0R, ANTI SULFURATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dual MOSFET, Dual N Channel, 540 mA, 20 V, 0.4 ohm, 4.5 V, 1 V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZOE-M8 RF Receiver BeiDou, Galileo, GLONASS, GNSS, GPS -160dBm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF Amplifier, GPS / GNSS, 20.5 dB Gain / 0.8 dB Noise, 1575.42 MHz, 1.6 V to 3.3 V Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambient Light Photo Sensor, Digital I2C Output, 560nm Peak Sensitivity, 1.7V to 3.6V Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRYSTAL, 32.768KHZ, 12.5PF, SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3, C5, C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4, C6, C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7, C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON1, TP1, TP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2, R6, R7, R8, R9, R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farnell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digi-Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRNAS Part No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-100013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-100016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+  <si>
+    <t>No. PCBs</t>
+  </si>
+  <si>
+    <t>Material in stock</t>
+  </si>
+  <si>
+    <t>Supplier Part Number 1</t>
+  </si>
+  <si>
+    <t>672-1063-1-ND</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>MULTICOMP         MC0402N330J160CT             SMD Multilayer Ceramic Capacitor, 0402 [1005 Metric], 33 pF, 16 V,  5%, C0G / NP0, MC Series                          New</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 10V 20% X5R 0402</t>
+  </si>
+  <si>
+    <t>MULTICOMP         MC0402X104J160CT             SMD Multilayer Ceramic Capacitor, 0402 [1005 Metric], 0.1 F, 16 V,  5%, X5R, MC Series                          New</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50volts 1.8pF C0G</t>
+  </si>
+  <si>
+    <t>Between PCB connection, TEST POINT ROUND SMD</t>
+  </si>
+  <si>
+    <t>RF / Coaxial Connector, U.FL Coaxial, Straight Jack, Surface Mount Vertical, 50 ohm, Brass</t>
+  </si>
+  <si>
+    <t>TVS Diode, ESD9R Series, Unidirectional, 3.3 V, 7.8 V</t>
+  </si>
+  <si>
+    <t>FIXED IND 33NH 200MA 580 MOHM</t>
+  </si>
+  <si>
+    <t>Inductor RF Chip Multi-Layer 4.3nH 0.3nH 100MHz 8Q-Factor Air 300mA 210mOhm DCR 0402 Paper T/R</t>
+  </si>
+  <si>
+    <t>MULTICOMP         MCMR04X1000FTL            SMD Chip Resistor, Ceramic, MCMR Series, 100 ohm, 50 V, 0402 [1005 Metric], 62.5 mW,  1%</t>
+  </si>
+  <si>
+    <t>MULTICOMP   MCWR04X1003FTL   RES, THICK FILM, 100KOHM, 1%, 0.0625W</t>
+  </si>
+  <si>
+    <t>RESISTOR, 0402, 0R, ANTI SULFURATION</t>
+  </si>
+  <si>
+    <t>Dual MOSFET, Dual N Channel, 540 mA, 20 V, 0.4 ohm, 4.5 V, 1 V</t>
+  </si>
+  <si>
+    <t>ZOE-M8 RF Receiver BeiDou, Galileo, GLONASS, GNSS, GPS -160dBm</t>
+  </si>
+  <si>
+    <t>RF Amplifier, GPS / GNSS, 20.5 dB Gain / 0.8 dB Noise, 1575.42 MHz, 1.6 V to 3.3 V Supply</t>
+  </si>
+  <si>
+    <t>Ambient Light Photo Sensor, Digital I2C Output, 560nm Peak Sensitivity, 1.7V to 3.6V Supply</t>
+  </si>
+  <si>
+    <t>CRYSTAL, 32.768KHZ, 12.5PF, SMD</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3, C5, C8</t>
+  </si>
+  <si>
+    <t>C4, C6, C9</t>
+  </si>
+  <si>
+    <t>C7, C10</t>
+  </si>
+  <si>
+    <t>CON1, TP1, TP2</t>
+  </si>
+  <si>
+    <t>CON2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2, R6, R7, R8, R9, R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>Supplier 1</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>IRNAS Part No.</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>I-100013</t>
+  </si>
+  <si>
+    <t>I-100016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;;;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -251,13 +190,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,13 +221,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,6 +246,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -302,11 +255,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -598,401 +551,391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.44140625" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1759384</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2672128</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1740588</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2627419</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2820847</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>1688077</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2101835</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>1711736</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>2846688</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>2072515</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>19</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>2447094</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>2072513</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>2533209</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15"/>
-    </row>
-    <row r="16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>23</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>2800966</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>2908903</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>25</v>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2467864</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="-3" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F84" sqref="F84:F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.21875" style="9" bestFit="1" customWidth="1"/>
@@ -1003,7 +946,7 @@
     <col min="7" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>'Altium Output'!A1</f>
         <v>Supplier Part Number 1</v>
@@ -1021,16 +964,16 @@
         <v>Designator</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="str">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <f>'Altium Output'!A2</f>
         <v>1759384</v>
       </c>
@@ -1049,8 +992,8 @@
       <c r="E2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="str">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <f>'Altium Output'!A3</f>
         <v>2672128</v>
       </c>
@@ -1069,8 +1012,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="str">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <f>'Altium Output'!A4</f>
         <v>1740588</v>
       </c>
@@ -1089,8 +1032,8 @@
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="str">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <f>'Altium Output'!A5</f>
         <v>2627419</v>
       </c>
@@ -1109,8 +1052,8 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="str">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <f>'Altium Output'!A6</f>
         <v>2820847</v>
       </c>
@@ -1129,7 +1072,7 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>'Altium Output'!A7</f>
         <v>0</v>
@@ -1149,8 +1092,8 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="str">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <f>'Altium Output'!A8</f>
         <v>1688077</v>
       </c>
@@ -1169,8 +1112,8 @@
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="str">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <f>'Altium Output'!A9</f>
         <v>2101835</v>
       </c>
@@ -1189,8 +1132,8 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="str">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <f>'Altium Output'!A10</f>
         <v>1711736</v>
       </c>
@@ -1209,10 +1152,10 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="str">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <f>'Altium Output'!A11</f>
-        <v>490-6563-1-ND</v>
+        <v>2846688</v>
       </c>
       <c r="B11" s="7">
         <f>MAX(0,'Altium Output'!B11*'Farnell Order'!$E$2-'Farnell Order'!F11)</f>
@@ -1229,8 +1172,8 @@
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4" t="str">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <f>'Altium Output'!A12</f>
         <v>2072515</v>
       </c>
@@ -1249,8 +1192,8 @@
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4" t="str">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <f>'Altium Output'!A13</f>
         <v>2447094</v>
       </c>
@@ -1269,8 +1212,8 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4" t="str">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <f>'Altium Output'!A14</f>
         <v>2072513</v>
       </c>
@@ -1289,8 +1232,8 @@
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="str">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <f>'Altium Output'!A15</f>
         <v>2533209</v>
       </c>
@@ -1309,7 +1252,7 @@
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f>'Altium Output'!A16</f>
         <v>672-1063-1-ND</v>
@@ -1329,8 +1272,8 @@
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="str">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <f>'Altium Output'!A17</f>
         <v>2800966</v>
       </c>
@@ -1349,8 +1292,8 @@
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4" t="str">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <f>'Altium Output'!A18</f>
         <v>2908903</v>
       </c>
@@ -1369,8 +1312,8 @@
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="str">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <f>'Altium Output'!A19</f>
         <v>2467864</v>
       </c>
@@ -1389,7 +1332,7 @@
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f>'Altium Output'!A20</f>
         <v>0</v>
@@ -1409,7 +1352,7 @@
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f>'Altium Output'!A21</f>
         <v>0</v>
@@ -1429,7 +1372,7 @@
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f>'Altium Output'!A22</f>
         <v>0</v>
@@ -1449,7 +1392,7 @@
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f>'Altium Output'!A23</f>
         <v>0</v>
@@ -1469,7 +1412,7 @@
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f>'Altium Output'!A24</f>
         <v>0</v>
@@ -1489,7 +1432,7 @@
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f>'Altium Output'!A25</f>
         <v>0</v>
@@ -1509,7 +1452,7 @@
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f>'Altium Output'!A26</f>
         <v>0</v>
@@ -1529,7 +1472,7 @@
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f>'Altium Output'!A27</f>
         <v>0</v>
@@ -1549,7 +1492,7 @@
       <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f>'Altium Output'!A28</f>
         <v>0</v>
@@ -1569,7 +1512,7 @@
       <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f>'Altium Output'!A29</f>
         <v>0</v>
@@ -1589,7 +1532,7 @@
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f>'Altium Output'!A30</f>
         <v>0</v>
@@ -1609,7 +1552,7 @@
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f>'Altium Output'!A31</f>
         <v>0</v>
@@ -1629,7 +1572,7 @@
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f>'Altium Output'!A32</f>
         <v>0</v>
@@ -1649,7 +1592,7 @@
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f>'Altium Output'!A33</f>
         <v>0</v>
@@ -1669,7 +1612,7 @@
       <c r="E33"/>
       <c r="F33"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f>'Altium Output'!A34</f>
         <v>0</v>
@@ -1689,7 +1632,7 @@
       <c r="E34"/>
       <c r="F34"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f>'Altium Output'!A35</f>
         <v>0</v>
@@ -1709,7 +1652,7 @@
       <c r="E35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f>'Altium Output'!A36</f>
         <v>0</v>
@@ -1729,7 +1672,7 @@
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f>'Altium Output'!A37</f>
         <v>0</v>
@@ -1749,7 +1692,7 @@
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f>'Altium Output'!A38</f>
         <v>0</v>
@@ -1769,7 +1712,7 @@
       <c r="E38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f>'Altium Output'!A39</f>
         <v>0</v>
@@ -1789,7 +1732,7 @@
       <c r="E39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f>'Altium Output'!A40</f>
         <v>0</v>
@@ -1809,7 +1752,7 @@
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f>'Altium Output'!A41</f>
         <v>0</v>
@@ -1829,7 +1772,7 @@
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f>'Altium Output'!A42</f>
         <v>0</v>
@@ -1849,7 +1792,7 @@
       <c r="E42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f>'Altium Output'!A43</f>
         <v>0</v>
@@ -1869,7 +1812,7 @@
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f>'Altium Output'!A44</f>
         <v>0</v>
@@ -1889,7 +1832,7 @@
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f>'Altium Output'!A45</f>
         <v>0</v>
@@ -1909,7 +1852,7 @@
       <c r="E45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f>'Altium Output'!A46</f>
         <v>0</v>
@@ -1929,7 +1872,7 @@
       <c r="E46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>'Altium Output'!A47</f>
         <v>0</v>
@@ -1949,7 +1892,7 @@
       <c r="E47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f>'Altium Output'!A48</f>
         <v>0</v>
@@ -1969,7 +1912,7 @@
       <c r="E48"/>
       <c r="F48"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f>'Altium Output'!A49</f>
         <v>0</v>
@@ -1989,7 +1932,7 @@
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f>'Altium Output'!A50</f>
         <v>0</v>
@@ -2009,7 +1952,7 @@
       <c r="E50"/>
       <c r="F50"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f>'Altium Output'!A51</f>
         <v>0</v>
@@ -2029,7 +1972,7 @@
       <c r="E51"/>
       <c r="F51"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f>'Altium Output'!A52</f>
         <v>0</v>
@@ -2049,7 +1992,7 @@
       <c r="E52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f>'Altium Output'!A53</f>
         <v>0</v>
@@ -2069,7 +2012,7 @@
       <c r="E53"/>
       <c r="F53"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f>'Altium Output'!A54</f>
         <v>0</v>
@@ -2089,7 +2032,7 @@
       <c r="E54"/>
       <c r="F54"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f>'Altium Output'!A55</f>
         <v>0</v>
@@ -2109,7 +2052,7 @@
       <c r="E55"/>
       <c r="F55"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f>'Altium Output'!A56</f>
         <v>0</v>
@@ -2129,7 +2072,7 @@
       <c r="E56"/>
       <c r="F56"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f>'Altium Output'!A57</f>
         <v>0</v>
@@ -2149,7 +2092,7 @@
       <c r="E57"/>
       <c r="F57"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>'Altium Output'!A58</f>
         <v>0</v>
@@ -2169,7 +2112,7 @@
       <c r="E58"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f>'Altium Output'!A59</f>
         <v>0</v>
@@ -2189,7 +2132,7 @@
       <c r="E59"/>
       <c r="F59"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f>'Altium Output'!A60</f>
         <v>0</v>
@@ -2209,7 +2152,7 @@
       <c r="E60"/>
       <c r="F60"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f>'Altium Output'!A61</f>
         <v>0</v>
@@ -2229,7 +2172,7 @@
       <c r="E61"/>
       <c r="F61"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f>'Altium Output'!A62</f>
         <v>0</v>
@@ -2249,7 +2192,7 @@
       <c r="E62"/>
       <c r="F62"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f>'Altium Output'!A63</f>
         <v>0</v>
@@ -2269,7 +2212,7 @@
       <c r="E63"/>
       <c r="F63"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f>'Altium Output'!A64</f>
         <v>0</v>
@@ -2289,7 +2232,7 @@
       <c r="E64"/>
       <c r="F64"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f>'Altium Output'!A65</f>
         <v>0</v>
@@ -2309,7 +2252,7 @@
       <c r="E65"/>
       <c r="F65"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f>'Altium Output'!A66</f>
         <v>0</v>
@@ -2329,7 +2272,7 @@
       <c r="E66"/>
       <c r="F66"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f>'Altium Output'!A67</f>
         <v>0</v>
@@ -2349,7 +2292,7 @@
       <c r="E67"/>
       <c r="F67"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f>'Altium Output'!A68</f>
         <v>0</v>
@@ -2369,7 +2312,7 @@
       <c r="E68"/>
       <c r="F68"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>'Altium Output'!A69</f>
         <v>0</v>
@@ -2389,7 +2332,7 @@
       <c r="E69"/>
       <c r="F69"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f>'Altium Output'!A70</f>
         <v>0</v>
@@ -2409,7 +2352,7 @@
       <c r="E70"/>
       <c r="F70"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f>'Altium Output'!A71</f>
         <v>0</v>
@@ -2429,7 +2372,7 @@
       <c r="E71"/>
       <c r="F71"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f>'Altium Output'!A72</f>
         <v>0</v>
@@ -2449,7 +2392,7 @@
       <c r="E72"/>
       <c r="F72"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f>'Altium Output'!A73</f>
         <v>0</v>
@@ -2469,7 +2412,7 @@
       <c r="E73"/>
       <c r="F73"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f>'Altium Output'!A74</f>
         <v>0</v>
@@ -2489,7 +2432,7 @@
       <c r="E74"/>
       <c r="F74"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f>'Altium Output'!A75</f>
         <v>0</v>
@@ -2509,7 +2452,7 @@
       <c r="E75"/>
       <c r="F75"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f>'Altium Output'!A76</f>
         <v>0</v>
@@ -2529,7 +2472,7 @@
       <c r="E76"/>
       <c r="F76"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f>'Altium Output'!A77</f>
         <v>0</v>
@@ -2549,7 +2492,7 @@
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f>'Altium Output'!A78</f>
         <v>0</v>
@@ -2569,7 +2512,7 @@
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f>'Altium Output'!A79</f>
         <v>0</v>
@@ -2589,7 +2532,7 @@
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f>'Altium Output'!A80</f>
         <v>0</v>
@@ -2609,7 +2552,7 @@
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f>'Altium Output'!A81</f>
         <v>0</v>
@@ -2629,7 +2572,7 @@
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f>'Altium Output'!A82</f>
         <v>0</v>
@@ -2649,7 +2592,7 @@
       <c r="E82"/>
       <c r="F82"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f>'Altium Output'!A83</f>
         <v>0</v>
@@ -2669,7 +2612,7 @@
       <c r="E83"/>
       <c r="F83"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f>'Altium Output'!A84</f>
         <v>0</v>
@@ -2689,7 +2632,7 @@
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f>'Altium Output'!A85</f>
         <v>0</v>
@@ -2709,7 +2652,7 @@
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f>'Altium Output'!A86</f>
         <v>0</v>
@@ -2729,7 +2672,7 @@
       <c r="E86"/>
       <c r="F86"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f>'Altium Output'!A87</f>
         <v>0</v>
@@ -2749,7 +2692,7 @@
       <c r="E87"/>
       <c r="F87"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f>'Altium Output'!A88</f>
         <v>0</v>
@@ -2769,7 +2712,7 @@
       <c r="E88"/>
       <c r="F88"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f>'Altium Output'!A89</f>
         <v>0</v>
@@ -2789,7 +2732,7 @@
       <c r="E89"/>
       <c r="F89"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f>'Altium Output'!A90</f>
         <v>0</v>
@@ -2809,7 +2752,7 @@
       <c r="E90"/>
       <c r="F90"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f>'Altium Output'!A91</f>
         <v>0</v>
@@ -2829,7 +2772,7 @@
       <c r="E91"/>
       <c r="F91"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f>'Altium Output'!A92</f>
         <v>0</v>
@@ -2849,7 +2792,7 @@
       <c r="E92"/>
       <c r="F92"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <f>'Altium Output'!A93</f>
         <v>0</v>
@@ -2869,7 +2812,7 @@
       <c r="E93"/>
       <c r="F93"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <f>'Altium Output'!A94</f>
         <v>0</v>
@@ -2889,7 +2832,7 @@
       <c r="E94"/>
       <c r="F94"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <f>'Altium Output'!A95</f>
         <v>0</v>
@@ -2909,7 +2852,7 @@
       <c r="E95"/>
       <c r="F95"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <f>'Altium Output'!A96</f>
         <v>0</v>
@@ -2929,7 +2872,7 @@
       <c r="E96"/>
       <c r="F96"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <f>'Altium Output'!A97</f>
         <v>0</v>
@@ -2949,7 +2892,7 @@
       <c r="E97"/>
       <c r="F97"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <f>'Altium Output'!A98</f>
         <v>0</v>
@@ -2969,7 +2912,7 @@
       <c r="E98"/>
       <c r="F98"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <f>'Altium Output'!A99</f>
         <v>0</v>
@@ -2989,7 +2932,7 @@
       <c r="E99"/>
       <c r="F99"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <f>'Altium Output'!A100</f>
         <v>0</v>
@@ -3011,6 +2954,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="-3" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>